--- a/data/lci-fg_bread.xlsx
+++ b/data/lci-fg_bread.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
   <si>
     <t>Database</t>
   </si>
@@ -73,6 +73,9 @@
     <t>technosphere</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>magnesium oxide production</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>Bread waste</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>enzymes production</t>
@@ -567,22 +573,22 @@
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.148</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -596,22 +602,22 @@
       <c r="H10">
         <v>0.0296</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0.139</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -625,22 +631,22 @@
       <c r="H11">
         <v>0.0278</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>7.33</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -654,22 +660,22 @@
       <c r="H12">
         <v>1.466</v>
       </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.183</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -683,22 +689,22 @@
       <c r="H13">
         <v>0.0366</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0.106</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -712,8 +718,8 @@
       <c r="H14">
         <v>0.0212</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -721,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -729,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -781,7 +787,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -801,8 +807,8 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -873,7 +879,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -893,22 +899,22 @@
       <c r="H30">
         <v>0.2</v>
       </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="I30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0.003676</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -922,22 +928,22 @@
       <c r="H31">
         <v>0.0007352</v>
       </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>0.182556</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -951,22 +957,22 @@
       <c r="H32">
         <v>0.0365112</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>7.2</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -980,22 +986,22 @@
       <c r="H33">
         <v>1.44</v>
       </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="I33" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -1009,8 +1015,8 @@
       <c r="H34">
         <v>1.2</v>
       </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="I34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1018,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1026,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1101,22 +1107,22 @@
       <c r="H42">
         <v>0.2</v>
       </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="I42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>0.042</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -1130,22 +1136,22 @@
       <c r="H43">
         <v>0.008399999999999999</v>
       </c>
-      <c r="I43">
-        <v>0</v>
+      <c r="I43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B44">
         <v>8.141999999999999</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
@@ -1159,22 +1165,22 @@
       <c r="H44">
         <v>1.6284</v>
       </c>
-      <c r="I44">
-        <v>0</v>
+      <c r="I44" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>-5.772</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -1188,22 +1194,22 @@
       <c r="H45">
         <v>1.1544</v>
       </c>
-      <c r="I45">
-        <v>1</v>
+      <c r="I45" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>7.33</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -1217,22 +1223,22 @@
       <c r="H46">
         <v>1.466</v>
       </c>
-      <c r="I46">
-        <v>0</v>
+      <c r="I46" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -1246,8 +1252,8 @@
       <c r="H47">
         <v>11.2</v>
       </c>
-      <c r="I47">
-        <v>0</v>
+      <c r="I47" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1255,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1263,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1315,7 +1321,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1335,8 +1341,8 @@
       <c r="G55">
         <v>0.2</v>
       </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/lci-fg_bread.xlsx
+++ b/data/lci-fg_bread.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
   <si>
     <t>Database</t>
   </si>
@@ -76,7 +76,7 @@
     <t>False</t>
   </si>
   <si>
-    <t>magnesium oxide production</t>
+    <t>market for carbon dioxide, liquid</t>
   </si>
   <si>
     <t>RER</t>
@@ -85,7 +85,13 @@
     <t>kilogram</t>
   </si>
   <si>
-    <t>market for carbon dioxide, liquid</t>
+    <t>market for magnesium oxide</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>market for neutralising agent, sodium hydroxide-equivalent</t>
   </si>
   <si>
     <t>market for steam, in chemical industry</t>
@@ -100,10 +106,7 @@
     <t>kilowatt hour</t>
   </si>
   <si>
-    <t>sodium hydroxide to generic market for neutralising agent</t>
-  </si>
-  <si>
-    <t>GLO</t>
+    <t>treatment of biowaste, industrial composting</t>
   </si>
   <si>
     <t>Bread waste</t>
@@ -112,10 +115,13 @@
     <t>True</t>
   </si>
   <si>
-    <t>enzymes production</t>
-  </si>
-  <si>
-    <t>tap water production, underground water with disinfection</t>
+    <t>market for enzymes</t>
+  </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
   </si>
   <si>
     <t>Purification</t>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t>market for soybean meal</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
   </si>
   <si>
     <t>Succinic acid production (bread)</t>
@@ -471,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -582,7 +594,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.148</v>
+        <v>0.319</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -597,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>0.148</v>
+        <v>0.319</v>
       </c>
       <c r="H10">
-        <v>0.0296</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -611,10 +623,10 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.139</v>
+        <v>0.148</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -626,10 +638,10 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>0.139</v>
+        <v>0.148</v>
       </c>
       <c r="H11">
-        <v>0.0278</v>
+        <v>0.0444</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -637,13 +649,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0.106</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12">
-        <v>7.33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -655,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>7.33</v>
+        <v>0.106</v>
       </c>
       <c r="H12">
-        <v>1.466</v>
+        <v>0.0318</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -669,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.183</v>
+        <v>7.33</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -684,10 +696,10 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>0.183</v>
+        <v>7.33</v>
       </c>
       <c r="H13">
-        <v>0.0366</v>
+        <v>2.199</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -698,249 +710,249 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.106</v>
+        <v>0.183</v>
       </c>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0.183</v>
+      </c>
+      <c r="H14">
+        <v>0.0549</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>0.106</v>
-      </c>
-      <c r="H14">
-        <v>0.0212</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0.2</v>
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.003676</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>0.003676</v>
-      </c>
-      <c r="H31">
-        <v>0.0007352</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.182556</v>
+        <v>0.003676</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -952,10 +964,10 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>0.182556</v>
+        <v>0.003676</v>
       </c>
       <c r="H32">
-        <v>0.0365112</v>
+        <v>0.0011028</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -963,13 +975,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>7.2</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -984,7 +996,7 @@
         <v>7.2</v>
       </c>
       <c r="H33">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -992,13 +1004,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1013,116 +1025,116 @@
         <v>6</v>
       </c>
       <c r="H34">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>0.182556</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0.182556</v>
+      </c>
+      <c r="H35">
+        <v>0.0547668</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0.2</v>
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>0.042</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -1131,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>0.042</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0.008399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I43" t="s">
         <v>19</v>
@@ -1142,13 +1154,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44">
-        <v>8.141999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1160,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>8.141999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="H44">
-        <v>1.6284</v>
+        <v>0.0126</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -1171,13 +1183,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>-5.772</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1189,24 +1201,24 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>-5.772</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="H45">
-        <v>1.1544</v>
+        <v>2.4426</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B46">
-        <v>7.33</v>
+        <v>-5.772</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1218,24 +1230,24 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>7.33</v>
+        <v>-5.772</v>
       </c>
       <c r="H46">
-        <v>1.466</v>
+        <v>1.7316</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>56</v>
+        <v>7.33</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -1247,102 +1259,215 @@
         <v>3</v>
       </c>
       <c r="G47">
+        <v>7.33</v>
+      </c>
+      <c r="H47">
+        <v>2.199</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
         <v>56</v>
       </c>
-      <c r="H47">
-        <v>11.2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>56</v>
+      </c>
+      <c r="H48">
+        <v>16.8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>0.182556</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0.182556</v>
+      </c>
+      <c r="H49">
+        <v>0.0547668</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>62</v>
+      </c>
+      <c r="H50">
+        <v>18.6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E57" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F57" t="s">
         <v>14</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55">
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55">
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
         <v>1</v>
       </c>
-      <c r="G55">
-        <v>0.2</v>
-      </c>
-      <c r="H55" t="s">
-        <v>19</v>
+      <c r="G58">
+        <v>0.3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/lci-fg_bread.xlsx
+++ b/data/lci-fg_bread.xlsx
@@ -25,7 +25,7 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>Bacterial fermentation</t>
+    <t>Bacterial fermentation (bread)</t>
   </si>
   <si>
     <t>code</t>
@@ -67,7 +67,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>Pre-treatment</t>
+    <t>Pre-treatment (bread)</t>
   </si>
   <si>
     <t>technosphere</t>
@@ -124,7 +124,7 @@
     <t>Europe without Switzerland</t>
   </si>
   <si>
-    <t>Purification</t>
+    <t>Purification (bread)</t>
   </si>
   <si>
     <t>market for hydrochloric acid, without water, in 30% solution state</t>
